--- a/freq_cover_attrib_4.xlsx
+++ b/freq_cover_attrib_4.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="freq_cover_attrib_4" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Sheet2!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -146,12 +147,70 @@
         </r>
       </text>
     </comment>
+    <comment ref="S4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Peter Smallidge:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+no data for 24 plots RE: fern cover due to snow</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Peter Smallidge</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Peter Smallidge:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+no data for 24 plots RE: fern cover due to snow</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2822" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2969" uniqueCount="68">
   <si>
     <t>harvest</t>
   </si>
@@ -329,12 +388,42 @@
   <si>
     <t>Slash</t>
   </si>
+  <si>
+    <t>med/high</t>
+  </si>
+  <si>
+    <t>% of plots with medium or high classification of assorted plot attributes. Example, 40% of gas line interior plots had medium to high disturbance levels</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Interior</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>% Plots with Medium to High Vegetative Cover</t>
+  </si>
+  <si>
+    <t>Cover at 0 to 6 ft</t>
+  </si>
+  <si>
+    <t>Cover at 6 to 30 ft</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,6 +577,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -883,7 +979,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -963,6 +1059,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1022,6 +1123,717 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Percent of Plots With Medium to High Stocking of Vegetative Cover</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>file:freq_cover_attrib</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$Q$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Control</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet4!$O$20:$P$26</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Gas Line</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Red Pine</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Station Road</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Gas Line</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Red Pine</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Station Road</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Cover at 0 to 6 ft</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Cover at 6 to 30 ft</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$Q$20:$Q$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.8823529411764701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.275862068965502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.352941176470509</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.764705882352899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.689655172413701</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.8235294117646994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D544-41C2-8D3F-0702933B8C63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$R$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Interior</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct20">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet4!$O$20:$P$26</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Gas Line</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Red Pine</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Station Road</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Gas Line</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Red Pine</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Station Road</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Cover at 0 to 6 ft</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Cover at 6 to 30 ft</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$R$20:$R$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>78.571428571428498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.285714285714207</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.38095238095238</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.6666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.714285714285595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D544-41C2-8D3F-0702933B8C63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$S$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Perimeter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet4!$O$20:$P$26</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Gas Line</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Red Pine</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Station Road</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Gas Line</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Red Pine</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Station Road</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Cover at 0 to 6 ft</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Cover at 6 to 30 ft</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$S$20:$S$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>70.588235294117567</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.923076923076891</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.307692307692207</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8235294117646994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.461538461538296</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46.153846153846089</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D544-41C2-8D3F-0702933B8C63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="576877896"/>
+        <c:axId val="576872320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="576877896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Harvest and Location</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4818902697403788"/>
+              <c:y val="0.91939415087564924"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="576872320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="576872320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>% Plots Stocked Medium to High Stocking</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9793075228987603E-2"/>
+              <c:y val="9.5341701534170153E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="576877896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.70614464155835932"/>
+          <c:y val="0.1730889708150643"/>
+          <c:w val="0.18152610441767067"/>
+          <c:h val="0.22137646089036558"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4139,6 +4951,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4681,7 +5533,545 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4979,9 +6369,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L289"/>
+  <dimension ref="A1:L286"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4990,27 +6382,85 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>35.294117647058798</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>11.764705882352899</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
-        <v>5</v>
+      <c r="F4">
+        <v>11.764705882352899</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -5024,13 +6474,13 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>35.294117647058798</v>
+        <v>41.176470588235198</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>32</v>
@@ -5041,19 +6491,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>11.764705882352899</v>
+        <v>22.857142857142801</v>
       </c>
       <c r="J6" t="s">
         <v>9</v>
@@ -5070,19 +6520,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F7">
-        <v>11.764705882352899</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
         <v>16</v>
@@ -5099,19 +6549,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>41.176470588235198</v>
+        <v>14.285714285714199</v>
       </c>
       <c r="J8" t="s">
         <v>10</v>
@@ -5134,13 +6584,13 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F9">
-        <v>22.857142857142801</v>
+        <v>42.857142857142797</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -5157,19 +6607,19 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10">
-        <v>20</v>
+        <v>30.769230769230699</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -5186,19 +6636,19 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>14.285714285714199</v>
+        <v>15.3846153846153</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -5206,19 +6656,19 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F12">
-        <v>42.857142857142797</v>
+        <v>23.076923076922998</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -5232,7 +6682,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <v>8</v>
@@ -5246,19 +6696,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>15.3846153846153</v>
+        <v>2.9411764705882302</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -5266,19 +6716,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>23.076923076922998</v>
+        <v>2.9411764705882302</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -5286,19 +6736,19 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16">
         <v>12</v>
       </c>
-      <c r="E16">
-        <v>8</v>
-      </c>
       <c r="F16">
-        <v>30.769230769230699</v>
+        <v>35.294117647058798</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -5312,13 +6762,13 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F17">
-        <v>2.9411764705882302</v>
+        <v>20.588235294117599</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5332,13 +6782,13 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F18">
-        <v>2.9411764705882302</v>
+        <v>38.235294117647001</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5346,19 +6796,19 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F19">
-        <v>35.294117647058798</v>
+        <v>22.857142857142801</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5366,19 +6816,19 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E20">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>20.588235294117599</v>
+        <v>2.8571428571428501</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -5386,19 +6836,19 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E21">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F21">
-        <v>38.235294117647001</v>
+        <v>11.4285714285714</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5412,13 +6862,13 @@
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F22">
-        <v>22.857142857142801</v>
+        <v>17.1428571428571</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -5432,13 +6882,13 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23">
         <v>16</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
       <c r="F23">
-        <v>2.8571428571428501</v>
+        <v>45.714285714285701</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -5446,19 +6896,19 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>11.4285714285714</v>
+        <v>7.6923076923076898</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -5466,19 +6916,19 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F25">
-        <v>17.1428571428571</v>
+        <v>26.923076923076898</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5486,19 +6936,19 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
         <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>45.714285714285701</v>
+        <v>7.6923076923076898</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5512,13 +6962,13 @@
         <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F27">
-        <v>7.6923076923076898</v>
+        <v>57.692307692307601</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -5526,19 +6976,19 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E28">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F28">
-        <v>26.923076923076898</v>
+        <v>11.764705882352899</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -5546,19 +6996,19 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29">
         <v>15</v>
       </c>
-      <c r="D29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
       <c r="F29">
-        <v>7.6923076923076898</v>
+        <v>44.117647058823501</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -5566,19 +7016,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F30">
-        <v>57.692307692307601</v>
+        <v>38.235294117647001</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -5592,13 +7042,13 @@
         <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>11.764705882352899</v>
+        <v>5.8823529411764701</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -5606,19 +7056,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
         <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E32">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>44.117647058823501</v>
+        <v>2.8571428571428501</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -5626,19 +7076,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
         <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E33">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>38.235294117647001</v>
+        <v>5.71428571428571</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -5646,19 +7096,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
         <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F34">
-        <v>5.8823529411764701</v>
+        <v>25.714285714285701</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -5672,13 +7122,13 @@
         <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F35">
-        <v>2.8571428571428501</v>
+        <v>14.285714285714199</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -5692,13 +7142,13 @@
         <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F36">
-        <v>5.71428571428571</v>
+        <v>51.428571428571402</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -5706,19 +7156,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
         <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E37">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F37">
-        <v>25.714285714285701</v>
+        <v>15.3846153846153</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -5726,19 +7176,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
         <v>17</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F38">
-        <v>14.285714285714199</v>
+        <v>26.923076923076898</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -5746,19 +7196,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
         <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E39">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F39">
-        <v>51.428571428571402</v>
+        <v>38.461538461538403</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -5772,13 +7222,13 @@
         <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F40">
-        <v>15.3846153846153</v>
+        <v>19.230769230769202</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -5786,19 +7236,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E41">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F41">
-        <v>26.923076923076898</v>
+        <v>67.647058823529406</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -5806,19 +7256,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E42">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>38.461538461538403</v>
+        <v>2.9411764705882302</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -5826,19 +7276,19 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
       </c>
       <c r="E43">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F43">
-        <v>19.230769230769202</v>
+        <v>29.411764705882302</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -5846,7 +7296,7 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
@@ -5855,10 +7305,10 @@
         <v>9</v>
       </c>
       <c r="E44">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F44">
-        <v>67.647058823529406</v>
+        <v>82.857142857142804</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -5866,7 +7316,7 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
         <v>18</v>
@@ -5878,7 +7328,7 @@
         <v>1</v>
       </c>
       <c r="F45">
-        <v>2.9411764705882302</v>
+        <v>2.8571428571428501</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -5886,7 +7336,7 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
         <v>18</v>
@@ -5895,10 +7345,10 @@
         <v>12</v>
       </c>
       <c r="E46">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F46">
-        <v>29.411764705882302</v>
+        <v>14.285714285714199</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -5906,7 +7356,7 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
         <v>18</v>
@@ -5915,10 +7365,10 @@
         <v>9</v>
       </c>
       <c r="E47">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F47">
-        <v>82.857142857142804</v>
+        <v>88.461538461538396</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -5926,19 +7376,19 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F48">
-        <v>2.8571428571428501</v>
+        <v>11.538461538461499</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -5946,19 +7396,19 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49">
         <v>18</v>
       </c>
-      <c r="D49" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49">
-        <v>5</v>
-      </c>
       <c r="F49">
-        <v>14.285714285714199</v>
+        <v>52.941176470588204</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -5966,19 +7416,19 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F50">
-        <v>88.461538461538396</v>
+        <v>11.764705882352899</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -5986,19 +7436,19 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E51">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F51">
-        <v>11.538461538461499</v>
+        <v>29.411764705882302</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -6012,13 +7462,13 @@
         <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E52">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F52">
-        <v>52.941176470588204</v>
+        <v>5.8823529411764701</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -6026,19 +7476,19 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
         <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E53">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F53">
-        <v>11.764705882352899</v>
+        <v>57.142857142857103</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -6046,19 +7496,19 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C54" t="s">
         <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E54">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F54">
-        <v>29.411764705882302</v>
+        <v>5.71428571428571</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -6066,19 +7516,19 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C55" t="s">
         <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F55">
-        <v>5.8823529411764701</v>
+        <v>37.142857142857103</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -6086,7 +7536,7 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
         <v>19</v>
@@ -6095,10 +7545,10 @@
         <v>16</v>
       </c>
       <c r="E56">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F56">
-        <v>57.142857142857103</v>
+        <v>65.384615384615302</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -6106,7 +7556,7 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C57" t="s">
         <v>19</v>
@@ -6115,10 +7565,10 @@
         <v>10</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>5.71428571428571</v>
+        <v>3.84615384615384</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -6126,7 +7576,7 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s">
         <v>19</v>
@@ -6135,10 +7585,10 @@
         <v>11</v>
       </c>
       <c r="E58">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F58">
-        <v>37.142857142857103</v>
+        <v>26.923076923076898</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -6152,13 +7602,13 @@
         <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E59">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>65.384615384615302</v>
+        <v>3.84615384615384</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -6166,19 +7616,19 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F60">
-        <v>3.84615384615384</v>
+        <v>23.529411764705799</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -6186,19 +7636,19 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E61">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F61">
-        <v>26.923076923076898</v>
+        <v>23.529411764705799</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -6206,19 +7656,19 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F62">
-        <v>3.84615384615384</v>
+        <v>8.8235294117646994</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -6232,13 +7682,13 @@
         <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E63">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F63">
-        <v>23.529411764705799</v>
+        <v>44.117647058823501</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -6246,19 +7696,19 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C64" t="s">
         <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E64">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F64">
-        <v>23.529411764705799</v>
+        <v>14.285714285714199</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -6266,19 +7716,19 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C65" t="s">
         <v>20</v>
       </c>
       <c r="D65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E65">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F65">
-        <v>8.8235294117646994</v>
+        <v>14.285714285714199</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -6286,19 +7736,19 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s">
         <v>20</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E66">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F66">
-        <v>44.117647058823501</v>
+        <v>31.428571428571399</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -6312,13 +7762,13 @@
         <v>20</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E67">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F67">
-        <v>14.285714285714199</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -6326,19 +7776,19 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C68" t="s">
         <v>20</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E68">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>14.285714285714199</v>
+        <v>3.84615384615384</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -6346,19 +7796,19 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C69" t="s">
         <v>20</v>
       </c>
       <c r="D69" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E69">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F69">
-        <v>31.428571428571399</v>
+        <v>7.6923076923076898</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -6366,19 +7816,19 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s">
         <v>20</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E70">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F70">
-        <v>40</v>
+        <v>23.076923076922998</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -6392,13 +7842,13 @@
         <v>20</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F71">
-        <v>3.84615384615384</v>
+        <v>38.461538461538403</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -6412,13 +7862,13 @@
         <v>20</v>
       </c>
       <c r="D72" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E72">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F72">
-        <v>7.6923076923076898</v>
+        <v>26.923076923076898</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -6426,19 +7876,19 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E73">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F73">
-        <v>23.076923076922998</v>
+        <v>5.8823529411764701</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -6446,19 +7896,19 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D74" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E74">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F74">
-        <v>38.461538461538403</v>
+        <v>8.8235294117646994</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -6466,19 +7916,19 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D75" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E75">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F75">
-        <v>26.923076923076898</v>
+        <v>26.470588235294102</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -6492,13 +7942,13 @@
         <v>21</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E76">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F76">
-        <v>5.8823529411764701</v>
+        <v>38.235294117647001</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -6512,13 +7962,13 @@
         <v>21</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E77">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F77">
-        <v>8.8235294117646994</v>
+        <v>20.588235294117599</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -6526,19 +7976,19 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C78" t="s">
         <v>21</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E78">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F78">
-        <v>26.470588235294102</v>
+        <v>11.4285714285714</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -6546,19 +7996,19 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C79" t="s">
         <v>21</v>
       </c>
       <c r="D79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E79">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F79">
-        <v>38.235294117647001</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -6566,19 +8016,19 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C80" t="s">
         <v>21</v>
       </c>
       <c r="D80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E80">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F80">
-        <v>20.588235294117599</v>
+        <v>54.285714285714199</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -6592,13 +8042,13 @@
         <v>21</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E81">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F81">
-        <v>11.4285714285714</v>
+        <v>14.285714285714199</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -6606,7 +8056,7 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C82" t="s">
         <v>21</v>
@@ -6615,10 +8065,10 @@
         <v>10</v>
       </c>
       <c r="E82">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F82">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -6626,7 +8076,7 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C83" t="s">
         <v>21</v>
@@ -6635,10 +8085,10 @@
         <v>11</v>
       </c>
       <c r="E83">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F83">
-        <v>54.285714285714199</v>
+        <v>23.076923076922998</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -6646,7 +8096,7 @@
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C84" t="s">
         <v>21</v>
@@ -6655,10 +8105,10 @@
         <v>12</v>
       </c>
       <c r="E84">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F84">
-        <v>14.285714285714199</v>
+        <v>26.923076923076898</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -6666,19 +8116,19 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E85">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F85">
-        <v>50</v>
+        <v>8.8235294117646994</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -6686,19 +8136,19 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D86" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E86">
         <v>6</v>
       </c>
       <c r="F86">
-        <v>23.076923076922998</v>
+        <v>17.647058823529399</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -6706,19 +8156,19 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D87" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E87">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F87">
-        <v>26.923076923076898</v>
+        <v>23.529411764705799</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -6732,13 +8182,13 @@
         <v>22</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E88">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F88">
-        <v>8.8235294117646994</v>
+        <v>29.411764705882302</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -6752,13 +8202,13 @@
         <v>22</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E89">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F89">
-        <v>17.647058823529399</v>
+        <v>20.588235294117599</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -6766,19 +8216,19 @@
         <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C90" t="s">
         <v>22</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E90">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F90">
-        <v>23.529411764705799</v>
+        <v>8.5714285714285694</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -6786,19 +8236,19 @@
         <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C91" t="s">
         <v>22</v>
       </c>
       <c r="D91" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E91">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F91">
-        <v>29.411764705882302</v>
+        <v>11.4285714285714</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -6806,19 +8256,19 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C92" t="s">
         <v>22</v>
       </c>
       <c r="D92" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E92">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F92">
-        <v>20.588235294117599</v>
+        <v>28.571428571428498</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -6832,13 +8282,13 @@
         <v>22</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E93">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F93">
-        <v>8.5714285714285694</v>
+        <v>34.285714285714199</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -6852,13 +8302,13 @@
         <v>22</v>
       </c>
       <c r="D94" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E94">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F94">
-        <v>11.4285714285714</v>
+        <v>17.1428571428571</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -6866,19 +8316,19 @@
         <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C95" t="s">
         <v>22</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E95">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F95">
-        <v>28.571428571428498</v>
+        <v>7.6923076923076898</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -6886,19 +8336,19 @@
         <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C96" t="s">
         <v>22</v>
       </c>
       <c r="D96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E96">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F96">
-        <v>34.285714285714199</v>
+        <v>19.230769230769202</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -6906,19 +8356,19 @@
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C97" t="s">
         <v>22</v>
       </c>
       <c r="D97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E97">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F97">
-        <v>17.1428571428571</v>
+        <v>34.615384615384599</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -6932,13 +8382,13 @@
         <v>22</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E98">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F98">
-        <v>7.6923076923076898</v>
+        <v>38.461538461538403</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -6946,19 +8396,19 @@
         <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E99">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="F99">
-        <v>19.230769230769202</v>
+        <v>91.176470588235205</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -6966,19 +8416,19 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E100">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F100">
-        <v>34.615384615384599</v>
+        <v>8.8235294117646994</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -6986,19 +8436,19 @@
         <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C101" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D101" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E101">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F101">
-        <v>38.461538461538403</v>
+        <v>65.714285714285694</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -7006,19 +8456,19 @@
         <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C102" t="s">
         <v>23</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F102">
-        <v>91.176470588235205</v>
+        <v>5.71428571428571</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -7026,7 +8476,7 @@
         <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C103" t="s">
         <v>23</v>
@@ -7035,10 +8485,10 @@
         <v>12</v>
       </c>
       <c r="E103">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F103">
-        <v>8.8235294117646994</v>
+        <v>28.571428571428498</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -7046,7 +8496,7 @@
         <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C104" t="s">
         <v>23</v>
@@ -7055,10 +8505,10 @@
         <v>9</v>
       </c>
       <c r="E104">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F104">
-        <v>65.714285714285694</v>
+        <v>65.384615384615302</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -7066,19 +8516,19 @@
         <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C105" t="s">
         <v>23</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>5.71428571428571</v>
+        <v>3.84615384615384</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -7086,7 +8536,7 @@
         <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C106" t="s">
         <v>23</v>
@@ -7095,70 +8545,70 @@
         <v>12</v>
       </c>
       <c r="E106">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F106">
-        <v>28.571428571428498</v>
+        <v>30.769230769230699</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D107" t="s">
         <v>9</v>
       </c>
       <c r="E107">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F107">
-        <v>65.384615384615302</v>
+        <v>35.294117647058798</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B108" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F108">
-        <v>3.84615384615384</v>
+        <v>47.058823529411697</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B109" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D109" t="s">
         <v>12</v>
       </c>
       <c r="E109">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F109">
-        <v>30.769230769230699</v>
+        <v>17.647058823529399</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -7166,7 +8616,7 @@
         <v>24</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C110" t="s">
         <v>8</v>
@@ -7175,10 +8625,10 @@
         <v>9</v>
       </c>
       <c r="E110">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F110">
-        <v>35.294117647058798</v>
+        <v>7.1428571428571397</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -7186,19 +8636,19 @@
         <v>24</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C111" t="s">
         <v>8</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E111">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F111">
-        <v>47.058823529411697</v>
+        <v>2.38095238095238</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -7206,19 +8656,19 @@
         <v>24</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C112" t="s">
         <v>8</v>
       </c>
       <c r="D112" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E112">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F112">
-        <v>17.647058823529399</v>
+        <v>35.714285714285701</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -7232,13 +8682,13 @@
         <v>8</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E113">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F113">
-        <v>7.1428571428571397</v>
+        <v>38.095238095238003</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -7252,13 +8702,13 @@
         <v>8</v>
       </c>
       <c r="D114" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F114">
-        <v>2.38095238095238</v>
+        <v>16.6666666666666</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -7266,19 +8716,19 @@
         <v>24</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C115" t="s">
         <v>8</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E115">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F115">
-        <v>35.714285714285701</v>
+        <v>2.9411764705882302</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -7286,19 +8736,19 @@
         <v>24</v>
       </c>
       <c r="B116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C116" t="s">
         <v>8</v>
       </c>
       <c r="D116" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E116">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F116">
-        <v>38.095238095238003</v>
+        <v>11.764705882352899</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -7306,19 +8756,19 @@
         <v>24</v>
       </c>
       <c r="B117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C117" t="s">
         <v>8</v>
       </c>
       <c r="D117" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E117">
         <v>7</v>
       </c>
       <c r="F117">
-        <v>16.6666666666666</v>
+        <v>20.588235294117599</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -7332,13 +8782,13 @@
         <v>8</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F118">
-        <v>2.9411764705882302</v>
+        <v>29.411764705882302</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -7352,13 +8802,13 @@
         <v>8</v>
       </c>
       <c r="D119" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E119">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F119">
-        <v>11.764705882352899</v>
+        <v>35.294117647058798</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -7366,19 +8816,19 @@
         <v>24</v>
       </c>
       <c r="B120" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E120">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>20.588235294117599</v>
+        <v>5.8823529411764701</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -7386,19 +8836,19 @@
         <v>24</v>
       </c>
       <c r="B121" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E121">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F121">
-        <v>29.411764705882302</v>
+        <v>17.647058823529399</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -7406,19 +8856,19 @@
         <v>24</v>
       </c>
       <c r="B122" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E122">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F122">
-        <v>35.294117647058798</v>
+        <v>5.8823529411764701</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -7432,13 +8882,13 @@
         <v>15</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F123">
-        <v>5.8823529411764701</v>
+        <v>70.588235294117595</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -7446,19 +8896,19 @@
         <v>24</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C124" t="s">
         <v>15</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E124">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F124">
-        <v>17.647058823529399</v>
+        <v>19.047619047619001</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -7466,19 +8916,19 @@
         <v>24</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C125" t="s">
         <v>15</v>
       </c>
       <c r="D125" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F125">
-        <v>5.8823529411764701</v>
+        <v>23.8095238095238</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -7486,19 +8936,19 @@
         <v>24</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C126" t="s">
         <v>15</v>
       </c>
       <c r="D126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E126">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F126">
-        <v>70.588235294117595</v>
+        <v>21.428571428571399</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -7512,13 +8962,13 @@
         <v>15</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E127">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F127">
-        <v>19.047619047619001</v>
+        <v>35.714285714285701</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -7526,19 +8976,19 @@
         <v>24</v>
       </c>
       <c r="B128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C128" t="s">
         <v>15</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E128">
         <v>10</v>
       </c>
       <c r="F128">
-        <v>23.8095238095238</v>
+        <v>29.411764705882302</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -7546,19 +8996,19 @@
         <v>24</v>
       </c>
       <c r="B129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C129" t="s">
         <v>15</v>
       </c>
       <c r="D129" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E129">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F129">
-        <v>21.428571428571399</v>
+        <v>20.588235294117599</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -7566,19 +9016,19 @@
         <v>24</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C130" t="s">
         <v>15</v>
       </c>
       <c r="D130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E130">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F130">
-        <v>35.714285714285701</v>
+        <v>5.8823529411764701</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -7592,13 +9042,13 @@
         <v>15</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E131">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F131">
-        <v>29.411764705882302</v>
+        <v>23.529411764705799</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -7612,7 +9062,7 @@
         <v>15</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E132">
         <v>7</v>
@@ -7626,19 +9076,19 @@
         <v>24</v>
       </c>
       <c r="B133" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D133" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E133">
         <v>2</v>
       </c>
       <c r="F133">
-        <v>5.8823529411764701</v>
+        <v>11.764705882352899</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -7646,16 +9096,16 @@
         <v>24</v>
       </c>
       <c r="B134" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D134" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E134">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F134">
         <v>23.529411764705799</v>
@@ -7666,19 +9116,19 @@
         <v>24</v>
       </c>
       <c r="B135" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E135">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F135">
-        <v>20.588235294117599</v>
+        <v>52.941176470588204</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -7692,7 +9142,7 @@
         <v>17</v>
       </c>
       <c r="D136" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E136">
         <v>2</v>
@@ -7706,19 +9156,19 @@
         <v>24</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C137" t="s">
         <v>17</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E137">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F137">
-        <v>23.529411764705799</v>
+        <v>16.6666666666666</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -7726,19 +9176,19 @@
         <v>24</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C138" t="s">
         <v>17</v>
       </c>
       <c r="D138" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E138">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F138">
-        <v>52.941176470588204</v>
+        <v>45.238095238095198</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -7746,19 +9196,19 @@
         <v>24</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C139" t="s">
         <v>17</v>
       </c>
       <c r="D139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E139">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F139">
-        <v>11.764705882352899</v>
+        <v>38.095238095238003</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -7766,7 +9216,7 @@
         <v>24</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C140" t="s">
         <v>17</v>
@@ -7775,10 +9225,10 @@
         <v>16</v>
       </c>
       <c r="E140">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F140">
-        <v>16.6666666666666</v>
+        <v>32.352941176470502</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -7786,7 +9236,7 @@
         <v>24</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C141" t="s">
         <v>17</v>
@@ -7795,10 +9245,10 @@
         <v>10</v>
       </c>
       <c r="E141">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F141">
-        <v>45.238095238095198</v>
+        <v>29.411764705882302</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -7806,7 +9256,7 @@
         <v>24</v>
       </c>
       <c r="B142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C142" t="s">
         <v>17</v>
@@ -7815,10 +9265,10 @@
         <v>11</v>
       </c>
       <c r="E142">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F142">
-        <v>38.095238095238003</v>
+        <v>29.411764705882302</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -7832,13 +9282,13 @@
         <v>17</v>
       </c>
       <c r="D143" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E143">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F143">
-        <v>32.352941176470502</v>
+        <v>8.8235294117646994</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -7846,19 +9296,19 @@
         <v>24</v>
       </c>
       <c r="B144" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
+        <v>18</v>
+      </c>
+      <c r="D144" t="s">
+        <v>9</v>
+      </c>
+      <c r="E144">
         <v>17</v>
       </c>
-      <c r="D144" t="s">
-        <v>10</v>
-      </c>
-      <c r="E144">
-        <v>10</v>
-      </c>
       <c r="F144">
-        <v>29.411764705882302</v>
+        <v>100</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -7866,19 +9316,19 @@
         <v>24</v>
       </c>
       <c r="B145" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C145" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D145" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E145">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F145">
-        <v>29.411764705882302</v>
+        <v>97.619047619047606</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -7886,19 +9336,19 @@
         <v>24</v>
       </c>
       <c r="B146" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C146" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D146" t="s">
         <v>12</v>
       </c>
       <c r="E146">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F146">
-        <v>8.8235294117646994</v>
+        <v>2.38095238095238</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -7906,7 +9356,7 @@
         <v>24</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C147" t="s">
         <v>18</v>
@@ -7915,10 +9365,10 @@
         <v>9</v>
       </c>
       <c r="E147">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F147">
-        <v>100</v>
+        <v>82.352941176470495</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -7926,19 +9376,19 @@
         <v>24</v>
       </c>
       <c r="B148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C148" t="s">
         <v>18</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E148">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="F148">
-        <v>97.619047619047606</v>
+        <v>17.647058823529399</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -7946,19 +9396,19 @@
         <v>24</v>
       </c>
       <c r="B149" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D149" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E149">
         <v>1</v>
       </c>
       <c r="F149">
-        <v>2.38095238095238</v>
+        <v>5.8823529411764701</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -7966,19 +9416,19 @@
         <v>24</v>
       </c>
       <c r="B150" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F150">
-        <v>82.352941176470495</v>
+        <v>23.529411764705799</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -7986,19 +9436,19 @@
         <v>24</v>
       </c>
       <c r="B151" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D151" t="s">
+        <v>11</v>
+      </c>
+      <c r="E151">
         <v>12</v>
       </c>
-      <c r="E151">
-        <v>6</v>
-      </c>
       <c r="F151">
-        <v>17.647058823529399</v>
+        <v>70.588235294117595</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -8006,7 +9456,7 @@
         <v>24</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C152" t="s">
         <v>19</v>
@@ -8015,10 +9465,10 @@
         <v>16</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F152">
-        <v>5.8823529411764701</v>
+        <v>33.3333333333333</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -8026,7 +9476,7 @@
         <v>24</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C153" t="s">
         <v>19</v>
@@ -8035,10 +9485,10 @@
         <v>10</v>
       </c>
       <c r="E153">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F153">
-        <v>23.529411764705799</v>
+        <v>16.6666666666666</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -8046,7 +9496,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C154" t="s">
         <v>19</v>
@@ -8055,10 +9505,10 @@
         <v>11</v>
       </c>
       <c r="E154">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F154">
-        <v>70.588235294117595</v>
+        <v>45.238095238095198</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -8072,13 +9522,13 @@
         <v>19</v>
       </c>
       <c r="D155" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E155">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F155">
-        <v>33.3333333333333</v>
+        <v>4.7619047619047601</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -8086,19 +9536,19 @@
         <v>24</v>
       </c>
       <c r="B156" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C156" t="s">
         <v>19</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E156">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F156">
-        <v>16.6666666666666</v>
+        <v>5.8823529411764701</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -8106,19 +9556,19 @@
         <v>24</v>
       </c>
       <c r="B157" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C157" t="s">
         <v>19</v>
       </c>
       <c r="D157" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E157">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F157">
-        <v>45.238095238095198</v>
+        <v>23.529411764705799</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -8126,19 +9576,19 @@
         <v>24</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C158" t="s">
         <v>19</v>
       </c>
       <c r="D158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E158">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F158">
-        <v>4.7619047619047601</v>
+        <v>64.705882352941103</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -8152,7 +9602,7 @@
         <v>19</v>
       </c>
       <c r="D159" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E159">
         <v>2</v>
@@ -8166,10 +9616,10 @@
         <v>24</v>
       </c>
       <c r="B160" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D160" t="s">
         <v>10</v>
@@ -8178,7 +9628,7 @@
         <v>8</v>
       </c>
       <c r="F160">
-        <v>23.529411764705799</v>
+        <v>47.058823529411697</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -8186,19 +9636,19 @@
         <v>24</v>
       </c>
       <c r="B161" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D161" t="s">
         <v>11</v>
       </c>
       <c r="E161">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F161">
-        <v>64.705882352941103</v>
+        <v>11.764705882352899</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -8206,19 +9656,19 @@
         <v>24</v>
       </c>
       <c r="B162" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D162" t="s">
         <v>12</v>
       </c>
       <c r="E162">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F162">
-        <v>5.8823529411764701</v>
+        <v>41.176470588235198</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -8226,19 +9676,19 @@
         <v>24</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C163" t="s">
         <v>20</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E163">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F163">
-        <v>47.058823529411697</v>
+        <v>11.9047619047619</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -8246,19 +9696,19 @@
         <v>24</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C164" t="s">
         <v>20</v>
       </c>
       <c r="D164" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E164">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F164">
-        <v>11.764705882352899</v>
+        <v>28.571428571428498</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -8266,19 +9716,19 @@
         <v>24</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C165" t="s">
         <v>20</v>
       </c>
       <c r="D165" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E165">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F165">
-        <v>41.176470588235198</v>
+        <v>2.38095238095238</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -8292,13 +9742,13 @@
         <v>20</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E166">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F166">
-        <v>11.9047619047619</v>
+        <v>57.142857142857103</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -8306,19 +9756,19 @@
         <v>24</v>
       </c>
       <c r="B167" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C167" t="s">
         <v>20</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E167">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>28.571428571428498</v>
+        <v>2.9411764705882302</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -8326,19 +9776,19 @@
         <v>24</v>
       </c>
       <c r="B168" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C168" t="s">
         <v>20</v>
       </c>
       <c r="D168" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F168">
-        <v>2.38095238095238</v>
+        <v>38.235294117647001</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -8346,19 +9796,19 @@
         <v>24</v>
       </c>
       <c r="B169" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C169" t="s">
         <v>20</v>
       </c>
       <c r="D169" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E169">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F169">
-        <v>57.142857142857103</v>
+        <v>8.8235294117646994</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -8372,13 +9822,13 @@
         <v>20</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F170">
-        <v>2.9411764705882302</v>
+        <v>50</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -8386,19 +9836,19 @@
         <v>24</v>
       </c>
       <c r="B171" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E171">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F171">
-        <v>38.235294117647001</v>
+        <v>11.764705882352899</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -8406,19 +9856,19 @@
         <v>24</v>
       </c>
       <c r="B172" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D172" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E172">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F172">
-        <v>8.8235294117646994</v>
+        <v>35.294117647058798</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -8426,19 +9876,19 @@
         <v>24</v>
       </c>
       <c r="B173" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D173" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E173">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F173">
-        <v>50</v>
+        <v>52.941176470588204</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -8446,7 +9896,7 @@
         <v>24</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C174" t="s">
         <v>21</v>
@@ -8458,7 +9908,7 @@
         <v>2</v>
       </c>
       <c r="F174">
-        <v>11.764705882352899</v>
+        <v>4.7619047619047601</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -8466,7 +9916,7 @@
         <v>24</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C175" t="s">
         <v>21</v>
@@ -8475,10 +9925,10 @@
         <v>10</v>
       </c>
       <c r="E175">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F175">
-        <v>35.294117647058798</v>
+        <v>47.619047619047599</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -8486,7 +9936,7 @@
         <v>24</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C176" t="s">
         <v>21</v>
@@ -8495,10 +9945,10 @@
         <v>11</v>
       </c>
       <c r="E176">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F176">
-        <v>52.941176470588204</v>
+        <v>38.095238095238003</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -8512,13 +9962,13 @@
         <v>21</v>
       </c>
       <c r="D177" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E177">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F177">
-        <v>4.7619047619047601</v>
+        <v>9.5238095238095202</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -8526,7 +9976,7 @@
         <v>24</v>
       </c>
       <c r="B178" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C178" t="s">
         <v>21</v>
@@ -8535,10 +9985,10 @@
         <v>10</v>
       </c>
       <c r="E178">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F178">
-        <v>47.619047619047599</v>
+        <v>29.411764705882302</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -8546,7 +9996,7 @@
         <v>24</v>
       </c>
       <c r="B179" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C179" t="s">
         <v>21</v>
@@ -8555,10 +10005,10 @@
         <v>11</v>
       </c>
       <c r="E179">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F179">
-        <v>38.095238095238003</v>
+        <v>8.8235294117646994</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -8566,7 +10016,7 @@
         <v>24</v>
       </c>
       <c r="B180" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C180" t="s">
         <v>21</v>
@@ -8575,10 +10025,10 @@
         <v>12</v>
       </c>
       <c r="E180">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F180">
-        <v>9.5238095238095202</v>
+        <v>61.764705882352899</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -8586,19 +10036,19 @@
         <v>24</v>
       </c>
       <c r="B181" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E181">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F181">
-        <v>29.411764705882302</v>
+        <v>11.764705882352899</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -8606,19 +10056,19 @@
         <v>24</v>
       </c>
       <c r="B182" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D182" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E182">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F182">
-        <v>8.8235294117646994</v>
+        <v>35.294117647058798</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -8626,19 +10076,19 @@
         <v>24</v>
       </c>
       <c r="B183" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D183" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E183">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F183">
-        <v>61.764705882352899</v>
+        <v>35.294117647058798</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -8652,13 +10102,13 @@
         <v>22</v>
       </c>
       <c r="D184" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E184">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F184">
-        <v>11.764705882352899</v>
+        <v>17.647058823529399</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -8666,19 +10116,19 @@
         <v>24</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C185" t="s">
         <v>22</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E185">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F185">
-        <v>35.294117647058798</v>
+        <v>64.285714285714207</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -8686,19 +10136,19 @@
         <v>24</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C186" t="s">
         <v>22</v>
       </c>
       <c r="D186" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E186">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F186">
-        <v>35.294117647058798</v>
+        <v>4.7619047619047601</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -8706,7 +10156,7 @@
         <v>24</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C187" t="s">
         <v>22</v>
@@ -8715,10 +10165,10 @@
         <v>12</v>
       </c>
       <c r="E187">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F187">
-        <v>17.647058823529399</v>
+        <v>30.952380952380899</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -8726,7 +10176,7 @@
         <v>24</v>
       </c>
       <c r="B188" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C188" t="s">
         <v>22</v>
@@ -8735,10 +10185,10 @@
         <v>9</v>
       </c>
       <c r="E188">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F188">
-        <v>64.285714285714207</v>
+        <v>58.823529411764703</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -8746,7 +10196,7 @@
         <v>24</v>
       </c>
       <c r="B189" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C189" t="s">
         <v>22</v>
@@ -8755,10 +10205,10 @@
         <v>10</v>
       </c>
       <c r="E189">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F189">
-        <v>4.7619047619047601</v>
+        <v>8.8235294117646994</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -8766,7 +10216,7 @@
         <v>24</v>
       </c>
       <c r="B190" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C190" t="s">
         <v>22</v>
@@ -8775,10 +10225,10 @@
         <v>12</v>
       </c>
       <c r="E190">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F190">
-        <v>30.952380952380899</v>
+        <v>32.352941176470502</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -8786,19 +10236,19 @@
         <v>24</v>
       </c>
       <c r="B191" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D191" t="s">
         <v>9</v>
       </c>
       <c r="E191">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F191">
-        <v>58.823529411764703</v>
+        <v>76.470588235294102</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -8806,19 +10256,19 @@
         <v>24</v>
       </c>
       <c r="B192" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E192">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F192">
-        <v>8.8235294117646994</v>
+        <v>5.8823529411764701</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -8826,19 +10276,19 @@
         <v>24</v>
       </c>
       <c r="B193" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D193" t="s">
         <v>12</v>
       </c>
       <c r="E193">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F193">
-        <v>32.352941176470502</v>
+        <v>17.647058823529399</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -8846,7 +10296,7 @@
         <v>24</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C194" t="s">
         <v>23</v>
@@ -8855,10 +10305,10 @@
         <v>9</v>
       </c>
       <c r="E194">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F194">
-        <v>76.470588235294102</v>
+        <v>59.523809523809497</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -8866,19 +10316,19 @@
         <v>24</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C195" t="s">
         <v>23</v>
       </c>
       <c r="D195" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F195">
-        <v>5.8823529411764701</v>
+        <v>11.9047619047619</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -8886,19 +10336,19 @@
         <v>24</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C196" t="s">
         <v>23</v>
       </c>
       <c r="D196" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E196">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F196">
-        <v>17.647058823529399</v>
+        <v>14.285714285714199</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -8912,13 +10362,13 @@
         <v>23</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E197">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F197">
-        <v>59.523809523809497</v>
+        <v>4.7619047619047601</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -8932,13 +10382,13 @@
         <v>23</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E198">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F198">
-        <v>11.9047619047619</v>
+        <v>9.5238095238095202</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -8946,19 +10396,19 @@
         <v>24</v>
       </c>
       <c r="B199" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C199" t="s">
         <v>23</v>
       </c>
       <c r="D199" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E199">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F199">
-        <v>14.285714285714199</v>
+        <v>97.058823529411697</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -8966,79 +10416,79 @@
         <v>24</v>
       </c>
       <c r="B200" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C200" t="s">
         <v>23</v>
       </c>
       <c r="D200" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F200">
-        <v>4.7619047619047601</v>
+        <v>2.9411764705882302</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B201" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D201" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E201">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F201">
-        <v>9.5238095238095202</v>
+        <v>10.344827586206801</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B202" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F202">
-        <v>97.058823529411697</v>
+        <v>27.586206896551701</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B203" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D203" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F203">
-        <v>2.9411764705882302</v>
+        <v>51.724137931034399</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -9052,7 +10502,7 @@
         <v>8</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E204">
         <v>3</v>
@@ -9066,19 +10516,19 @@
         <v>26</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C205" t="s">
         <v>8</v>
       </c>
       <c r="D205" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E205">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F205">
-        <v>27.586206896551701</v>
+        <v>26.6666666666666</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -9086,19 +10536,19 @@
         <v>26</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C206" t="s">
         <v>8</v>
       </c>
       <c r="D206" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E206">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F206">
-        <v>51.724137931034399</v>
+        <v>20</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -9106,19 +10556,19 @@
         <v>26</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C207" t="s">
         <v>8</v>
       </c>
       <c r="D207" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E207">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F207">
-        <v>10.344827586206801</v>
+        <v>6.6666666666666599</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -9132,13 +10582,13 @@
         <v>8</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E208">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F208">
-        <v>26.6666666666666</v>
+        <v>46.6666666666666</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -9146,19 +10596,19 @@
         <v>26</v>
       </c>
       <c r="B209" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C209" t="s">
         <v>8</v>
       </c>
       <c r="D209" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E209">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F209">
-        <v>20</v>
+        <v>38.461538461538403</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -9166,19 +10616,19 @@
         <v>26</v>
       </c>
       <c r="B210" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C210" t="s">
         <v>8</v>
       </c>
       <c r="D210" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E210">
         <v>1</v>
       </c>
       <c r="F210">
-        <v>6.6666666666666599</v>
+        <v>7.6923076923076898</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -9186,19 +10636,19 @@
         <v>26</v>
       </c>
       <c r="B211" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C211" t="s">
         <v>8</v>
       </c>
       <c r="D211" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E211">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F211">
-        <v>46.6666666666666</v>
+        <v>30.769230769230699</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -9212,13 +10662,13 @@
         <v>8</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E212">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F212">
-        <v>38.461538461538403</v>
+        <v>23.076923076922998</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -9226,19 +10676,19 @@
         <v>26</v>
       </c>
       <c r="B213" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D213" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F213">
-        <v>7.6923076923076898</v>
+        <v>24.137931034482701</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -9246,19 +10696,19 @@
         <v>26</v>
       </c>
       <c r="B214" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D214" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E214">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F214">
-        <v>30.769230769230699</v>
+        <v>20.689655172413701</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -9266,19 +10716,19 @@
         <v>26</v>
       </c>
       <c r="B215" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D215" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E215">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F215">
-        <v>23.076923076922998</v>
+        <v>6.8965517241379297</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -9292,13 +10742,13 @@
         <v>15</v>
       </c>
       <c r="D216" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E216">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F216">
-        <v>24.137931034482701</v>
+        <v>48.275862068965502</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -9306,19 +10756,19 @@
         <v>26</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C217" t="s">
         <v>15</v>
       </c>
       <c r="D217" t="s">
+        <v>9</v>
+      </c>
+      <c r="E217">
         <v>10</v>
       </c>
-      <c r="E217">
-        <v>6</v>
-      </c>
       <c r="F217">
-        <v>20.689655172413701</v>
+        <v>66.6666666666666</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -9326,19 +10776,19 @@
         <v>26</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C218" t="s">
         <v>15</v>
       </c>
       <c r="D218" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F218">
-        <v>6.8965517241379297</v>
+        <v>6.6666666666666599</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -9346,7 +10796,7 @@
         <v>26</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C219" t="s">
         <v>15</v>
@@ -9355,10 +10805,10 @@
         <v>12</v>
       </c>
       <c r="E219">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F219">
-        <v>48.275862068965502</v>
+        <v>26.6666666666666</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -9366,7 +10816,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C220" t="s">
         <v>15</v>
@@ -9375,10 +10825,10 @@
         <v>9</v>
       </c>
       <c r="E220">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F220">
-        <v>66.6666666666666</v>
+        <v>100</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -9386,19 +10836,19 @@
         <v>26</v>
       </c>
       <c r="B221" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D221" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F221">
-        <v>6.6666666666666599</v>
+        <v>31.034482758620602</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -9406,19 +10856,19 @@
         <v>26</v>
       </c>
       <c r="B222" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D222" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E222">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F222">
-        <v>26.6666666666666</v>
+        <v>27.586206896551701</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -9426,19 +10876,19 @@
         <v>26</v>
       </c>
       <c r="B223" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D223" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E223">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F223">
-        <v>100</v>
+        <v>34.482758620689602</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -9452,13 +10902,13 @@
         <v>17</v>
       </c>
       <c r="D224" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E224">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F224">
-        <v>31.034482758620602</v>
+        <v>6.8965517241379297</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -9466,19 +10916,19 @@
         <v>26</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C225" t="s">
         <v>17</v>
       </c>
       <c r="D225" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E225">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F225">
-        <v>27.586206896551701</v>
+        <v>46.6666666666666</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -9486,19 +10936,19 @@
         <v>26</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C226" t="s">
         <v>17</v>
       </c>
       <c r="D226" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E226">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>34.482758620689602</v>
+        <v>6.6666666666666599</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -9506,19 +10956,19 @@
         <v>26</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C227" t="s">
         <v>17</v>
       </c>
       <c r="D227" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E227">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F227">
-        <v>6.8965517241379297</v>
+        <v>46.6666666666666</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -9526,7 +10976,7 @@
         <v>26</v>
       </c>
       <c r="B228" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C228" t="s">
         <v>17</v>
@@ -9535,10 +10985,10 @@
         <v>16</v>
       </c>
       <c r="E228">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F228">
-        <v>46.6666666666666</v>
+        <v>38.461538461538403</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -9546,7 +10996,7 @@
         <v>26</v>
       </c>
       <c r="B229" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C229" t="s">
         <v>17</v>
@@ -9555,10 +11005,10 @@
         <v>10</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F229">
-        <v>6.6666666666666599</v>
+        <v>30.769230769230699</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -9566,7 +11016,7 @@
         <v>26</v>
       </c>
       <c r="B230" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C230" t="s">
         <v>17</v>
@@ -9575,10 +11025,10 @@
         <v>11</v>
       </c>
       <c r="E230">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F230">
-        <v>46.6666666666666</v>
+        <v>30.769230769230699</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -9586,19 +11036,19 @@
         <v>26</v>
       </c>
       <c r="B231" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D231" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E231">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F231">
-        <v>38.461538461538403</v>
+        <v>75.862068965517196</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -9606,19 +11056,19 @@
         <v>26</v>
       </c>
       <c r="B232" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D232" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E232">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F232">
-        <v>30.769230769230699</v>
+        <v>24.137931034482701</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -9626,19 +11076,19 @@
         <v>26</v>
       </c>
       <c r="B233" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C233" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D233" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E233">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F233">
-        <v>30.769230769230699</v>
+        <v>66.6666666666666</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -9646,19 +11096,19 @@
         <v>26</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C234" t="s">
         <v>18</v>
       </c>
       <c r="D234" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E234">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F234">
-        <v>75.862068965517196</v>
+        <v>6.6666666666666599</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -9666,7 +11116,7 @@
         <v>26</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C235" t="s">
         <v>18</v>
@@ -9675,10 +11125,10 @@
         <v>12</v>
       </c>
       <c r="E235">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F235">
-        <v>24.137931034482701</v>
+        <v>26.6666666666666</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -9686,7 +11136,7 @@
         <v>26</v>
       </c>
       <c r="B236" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C236" t="s">
         <v>18</v>
@@ -9695,10 +11145,10 @@
         <v>9</v>
       </c>
       <c r="E236">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F236">
-        <v>66.6666666666666</v>
+        <v>69.230769230769198</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -9706,7 +11156,7 @@
         <v>26</v>
       </c>
       <c r="B237" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C237" t="s">
         <v>18</v>
@@ -9718,7 +11168,7 @@
         <v>1</v>
       </c>
       <c r="F237">
-        <v>6.6666666666666599</v>
+        <v>7.6923076923076898</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -9726,7 +11176,7 @@
         <v>26</v>
       </c>
       <c r="B238" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C238" t="s">
         <v>18</v>
@@ -9735,10 +11185,10 @@
         <v>12</v>
       </c>
       <c r="E238">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F238">
-        <v>26.6666666666666</v>
+        <v>23.076923076922998</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -9746,19 +11196,19 @@
         <v>26</v>
       </c>
       <c r="B239" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C239" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D239" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E239">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F239">
-        <v>69.230769230769198</v>
+        <v>34.482758620689602</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -9766,19 +11216,19 @@
         <v>26</v>
       </c>
       <c r="B240" t="s">
+        <v>7</v>
+      </c>
+      <c r="C240" t="s">
+        <v>19</v>
+      </c>
+      <c r="D240" t="s">
+        <v>11</v>
+      </c>
+      <c r="E240">
         <v>14</v>
       </c>
-      <c r="C240" t="s">
-        <v>18</v>
-      </c>
-      <c r="D240" t="s">
-        <v>10</v>
-      </c>
-      <c r="E240">
-        <v>1</v>
-      </c>
       <c r="F240">
-        <v>7.6923076923076898</v>
+        <v>48.275862068965502</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -9786,19 +11236,19 @@
         <v>26</v>
       </c>
       <c r="B241" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D241" t="s">
         <v>12</v>
       </c>
       <c r="E241">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F241">
-        <v>23.076923076922998</v>
+        <v>17.241379310344801</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -9806,7 +11256,7 @@
         <v>26</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C242" t="s">
         <v>19</v>
@@ -9815,10 +11265,10 @@
         <v>10</v>
       </c>
       <c r="E242">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F242">
-        <v>34.482758620689602</v>
+        <v>40</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -9826,7 +11276,7 @@
         <v>26</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C243" t="s">
         <v>19</v>
@@ -9835,10 +11285,10 @@
         <v>11</v>
       </c>
       <c r="E243">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F243">
-        <v>48.275862068965502</v>
+        <v>60</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -9846,19 +11296,19 @@
         <v>26</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C244" t="s">
         <v>19</v>
       </c>
       <c r="D244" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E244">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F244">
-        <v>17.241379310344801</v>
+        <v>7.6923076923076898</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -9866,7 +11316,7 @@
         <v>26</v>
       </c>
       <c r="B245" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C245" t="s">
         <v>19</v>
@@ -9875,10 +11325,10 @@
         <v>10</v>
       </c>
       <c r="E245">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F245">
-        <v>40</v>
+        <v>23.076923076922998</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -9886,7 +11336,7 @@
         <v>26</v>
       </c>
       <c r="B246" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C246" t="s">
         <v>19</v>
@@ -9898,7 +11348,7 @@
         <v>9</v>
       </c>
       <c r="F246">
-        <v>60</v>
+        <v>69.230769230769198</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -9906,19 +11356,19 @@
         <v>26</v>
       </c>
       <c r="B247" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D247" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F247">
-        <v>7.6923076923076898</v>
+        <v>6.8965517241379297</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -9926,19 +11376,19 @@
         <v>26</v>
       </c>
       <c r="B248" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D248" t="s">
         <v>10</v>
       </c>
       <c r="E248">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F248">
-        <v>23.076923076922998</v>
+        <v>27.586206896551701</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -9946,19 +11396,19 @@
         <v>26</v>
       </c>
       <c r="B249" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D249" t="s">
         <v>11</v>
       </c>
       <c r="E249">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F249">
-        <v>69.230769230769198</v>
+        <v>20.689655172413701</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -9972,13 +11422,13 @@
         <v>20</v>
       </c>
       <c r="D250" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E250">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F250">
-        <v>6.8965517241379297</v>
+        <v>44.827586206896498</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -9986,19 +11436,19 @@
         <v>26</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C251" t="s">
         <v>20</v>
       </c>
       <c r="D251" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E251">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F251">
-        <v>27.586206896551701</v>
+        <v>13.3333333333333</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -10006,19 +11456,19 @@
         <v>26</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C252" t="s">
         <v>20</v>
       </c>
       <c r="D252" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E252">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F252">
-        <v>20.689655172413701</v>
+        <v>26.6666666666666</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -10026,19 +11476,19 @@
         <v>26</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C253" t="s">
         <v>20</v>
       </c>
       <c r="D253" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E253">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F253">
-        <v>44.827586206896498</v>
+        <v>13.3333333333333</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -10052,13 +11502,13 @@
         <v>20</v>
       </c>
       <c r="D254" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E254">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F254">
-        <v>13.3333333333333</v>
+        <v>46.6666666666666</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -10066,19 +11516,19 @@
         <v>26</v>
       </c>
       <c r="B255" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C255" t="s">
         <v>20</v>
       </c>
       <c r="D255" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E255">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F255">
-        <v>26.6666666666666</v>
+        <v>15.3846153846153</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -10086,19 +11536,19 @@
         <v>26</v>
       </c>
       <c r="B256" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C256" t="s">
         <v>20</v>
       </c>
       <c r="D256" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E256">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F256">
-        <v>13.3333333333333</v>
+        <v>38.461538461538403</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -10106,19 +11556,19 @@
         <v>26</v>
       </c>
       <c r="B257" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C257" t="s">
         <v>20</v>
       </c>
       <c r="D257" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E257">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F257">
-        <v>46.6666666666666</v>
+        <v>23.076923076922998</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -10132,13 +11582,13 @@
         <v>20</v>
       </c>
       <c r="D258" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E258">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F258">
-        <v>15.3846153846153</v>
+        <v>23.076923076922998</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -10146,19 +11596,19 @@
         <v>26</v>
       </c>
       <c r="B259" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C259" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D259" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E259">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F259">
-        <v>38.461538461538403</v>
+        <v>6.8965517241379297</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -10166,19 +11616,19 @@
         <v>26</v>
       </c>
       <c r="B260" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C260" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D260" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E260">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F260">
-        <v>23.076923076922998</v>
+        <v>24.137931034482701</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -10186,19 +11636,19 @@
         <v>26</v>
       </c>
       <c r="B261" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C261" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D261" t="s">
+        <v>11</v>
+      </c>
+      <c r="E261">
         <v>12</v>
       </c>
-      <c r="E261">
-        <v>3</v>
-      </c>
       <c r="F261">
-        <v>23.076923076922998</v>
+        <v>41.379310344827502</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -10212,13 +11662,13 @@
         <v>21</v>
       </c>
       <c r="D262" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E262">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F262">
-        <v>6.8965517241379297</v>
+        <v>27.586206896551701</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -10226,19 +11676,19 @@
         <v>26</v>
       </c>
       <c r="B263" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C263" t="s">
         <v>21</v>
       </c>
       <c r="D263" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E263">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F263">
-        <v>24.137931034482701</v>
+        <v>20</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -10246,19 +11696,19 @@
         <v>26</v>
       </c>
       <c r="B264" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C264" t="s">
         <v>21</v>
       </c>
       <c r="D264" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E264">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F264">
-        <v>41.379310344827502</v>
+        <v>26.6666666666666</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -10266,19 +11716,19 @@
         <v>26</v>
       </c>
       <c r="B265" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C265" t="s">
         <v>21</v>
       </c>
       <c r="D265" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E265">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F265">
-        <v>27.586206896551701</v>
+        <v>46.6666666666666</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -10292,13 +11742,13 @@
         <v>21</v>
       </c>
       <c r="D266" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E266">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F266">
-        <v>20</v>
+        <v>6.6666666666666599</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -10306,7 +11756,7 @@
         <v>26</v>
       </c>
       <c r="B267" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C267" t="s">
         <v>21</v>
@@ -10315,10 +11765,10 @@
         <v>10</v>
       </c>
       <c r="E267">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F267">
-        <v>26.6666666666666</v>
+        <v>69.230769230769198</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -10326,7 +11776,7 @@
         <v>26</v>
       </c>
       <c r="B268" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C268" t="s">
         <v>21</v>
@@ -10335,10 +11785,10 @@
         <v>11</v>
       </c>
       <c r="E268">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F268">
-        <v>46.6666666666666</v>
+        <v>23.076923076922998</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -10346,7 +11796,7 @@
         <v>26</v>
       </c>
       <c r="B269" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C269" t="s">
         <v>21</v>
@@ -10358,7 +11808,7 @@
         <v>1</v>
       </c>
       <c r="F269">
-        <v>6.6666666666666599</v>
+        <v>7.6923076923076898</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -10366,19 +11816,19 @@
         <v>26</v>
       </c>
       <c r="B270" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C270" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D270" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E270">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F270">
-        <v>69.230769230769198</v>
+        <v>37.931034482758598</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
@@ -10386,19 +11836,19 @@
         <v>26</v>
       </c>
       <c r="B271" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C271" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D271" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E271">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F271">
-        <v>23.076923076922998</v>
+        <v>13.793103448275801</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -10406,19 +11856,19 @@
         <v>26</v>
       </c>
       <c r="B272" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C272" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D272" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E272">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F272">
-        <v>7.6923076923076898</v>
+        <v>13.793103448275801</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -10432,13 +11882,13 @@
         <v>22</v>
       </c>
       <c r="D273" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E273">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F273">
-        <v>37.931034482758598</v>
+        <v>34.482758620689602</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -10446,19 +11896,19 @@
         <v>26</v>
       </c>
       <c r="B274" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C274" t="s">
         <v>22</v>
       </c>
       <c r="D274" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E274">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F274">
-        <v>13.793103448275801</v>
+        <v>46.6666666666666</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -10466,19 +11916,19 @@
         <v>26</v>
       </c>
       <c r="B275" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C275" t="s">
         <v>22</v>
       </c>
       <c r="D275" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E275">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F275">
-        <v>13.793103448275801</v>
+        <v>6.6666666666666599</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -10486,19 +11936,19 @@
         <v>26</v>
       </c>
       <c r="B276" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C276" t="s">
         <v>22</v>
       </c>
       <c r="D276" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E276">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F276">
-        <v>34.482758620689602</v>
+        <v>13.3333333333333</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -10512,13 +11962,13 @@
         <v>22</v>
       </c>
       <c r="D277" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E277">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F277">
-        <v>46.6666666666666</v>
+        <v>33.3333333333333</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -10526,19 +11976,19 @@
         <v>26</v>
       </c>
       <c r="B278" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C278" t="s">
         <v>22</v>
       </c>
       <c r="D278" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E278">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F278">
-        <v>6.6666666666666599</v>
+        <v>46.153846153846096</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -10546,19 +11996,19 @@
         <v>26</v>
       </c>
       <c r="B279" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C279" t="s">
         <v>22</v>
       </c>
       <c r="D279" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E279">
         <v>2</v>
       </c>
       <c r="F279">
-        <v>13.3333333333333</v>
+        <v>15.3846153846153</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -10566,7 +12016,7 @@
         <v>26</v>
       </c>
       <c r="B280" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C280" t="s">
         <v>22</v>
@@ -10578,7 +12028,7 @@
         <v>5</v>
       </c>
       <c r="F280">
-        <v>33.3333333333333</v>
+        <v>38.461538461538403</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -10586,19 +12036,19 @@
         <v>26</v>
       </c>
       <c r="B281" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C281" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D281" t="s">
         <v>9</v>
       </c>
       <c r="E281">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F281">
-        <v>46.153846153846096</v>
+        <v>72.413793103448199</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -10606,19 +12056,19 @@
         <v>26</v>
       </c>
       <c r="B282" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C282" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D282" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E282">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F282">
-        <v>15.3846153846153</v>
+        <v>27.586206896551701</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -10626,19 +12076,19 @@
         <v>26</v>
       </c>
       <c r="B283" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C283" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D283" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E283">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F283">
-        <v>38.461538461538403</v>
+        <v>60</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -10646,19 +12096,19 @@
         <v>26</v>
       </c>
       <c r="B284" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C284" t="s">
         <v>23</v>
       </c>
       <c r="D284" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E284">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F284">
-        <v>72.413793103448199</v>
+        <v>40</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
@@ -10666,19 +12116,19 @@
         <v>26</v>
       </c>
       <c r="B285" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C285" t="s">
         <v>23</v>
       </c>
       <c r="D285" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E285">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F285">
-        <v>27.586206896551701</v>
+        <v>76.923076923076906</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -10686,78 +12136,18 @@
         <v>26</v>
       </c>
       <c r="B286" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C286" t="s">
         <v>23</v>
       </c>
       <c r="D286" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E286">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F286">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>26</v>
-      </c>
-      <c r="B287" t="s">
-        <v>13</v>
-      </c>
-      <c r="C287" t="s">
-        <v>23</v>
-      </c>
-      <c r="D287" t="s">
-        <v>12</v>
-      </c>
-      <c r="E287">
-        <v>6</v>
-      </c>
-      <c r="F287">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>26</v>
-      </c>
-      <c r="B288" t="s">
-        <v>14</v>
-      </c>
-      <c r="C288" t="s">
-        <v>23</v>
-      </c>
-      <c r="D288" t="s">
-        <v>9</v>
-      </c>
-      <c r="E288">
-        <v>10</v>
-      </c>
-      <c r="F288">
-        <v>76.923076923076906</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>26</v>
-      </c>
-      <c r="B289" t="s">
-        <v>14</v>
-      </c>
-      <c r="C289" t="s">
-        <v>23</v>
-      </c>
-      <c r="D289" t="s">
-        <v>12</v>
-      </c>
-      <c r="E289">
-        <v>3</v>
-      </c>
-      <c r="F289">
         <v>23.076923076922998</v>
       </c>
     </row>
@@ -18714,8 +20104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:AA46"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21413,6 +22803,1492 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="20"/>
+    <col min="4" max="11" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="20"/>
+    <col min="18" max="26" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="11">
+        <v>5.8823529411764701</v>
+      </c>
+      <c r="F2" s="11">
+        <v>52.941176470588204</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="11">
+        <v>5.8823529411764701</v>
+      </c>
+      <c r="I2" s="11">
+        <v>11.764705882352899</v>
+      </c>
+      <c r="J2" s="11">
+        <v>35.294117647058798</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="11">
+        <v>11.764705882352899</v>
+      </c>
+      <c r="O2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="11">
+        <v>11.764705882352899</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6">
+        <v>12</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>5.8823529411764701</v>
+      </c>
+      <c r="F4" s="11">
+        <v>64.705882352941103</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <v>5.8823529411764701</v>
+      </c>
+      <c r="I4" s="11">
+        <v>11.764705882352899</v>
+      </c>
+      <c r="J4" s="11">
+        <v>47.294117647058798</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11">
+        <v>11.764705882352899</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z4" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="11">
+        <v>38.095238095238003</v>
+      </c>
+      <c r="E5" s="11">
+        <v>21.428571428571399</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="11">
+        <v>45.238095238095198</v>
+      </c>
+      <c r="I5" s="11">
+        <v>2.38095238095238</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="11">
+        <v>14.285714285714199</v>
+      </c>
+      <c r="L5" s="11">
+        <v>38.095238095238003</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="R5" s="11">
+        <v>0</v>
+      </c>
+      <c r="S5" s="11">
+        <v>5.8823529411764701</v>
+      </c>
+      <c r="T5" s="11">
+        <v>64.705882352941103</v>
+      </c>
+      <c r="U5" s="11">
+        <v>0</v>
+      </c>
+      <c r="V5" s="11">
+        <v>5.8823529411764701</v>
+      </c>
+      <c r="W5" s="11">
+        <v>11.764705882352899</v>
+      </c>
+      <c r="X5" s="11">
+        <v>47.294117647058798</v>
+      </c>
+      <c r="Y5" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="11">
+        <v>11.764705882352899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="11">
+        <v>2.38095238095238</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="11">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="11">
+        <v>4.7619047619047601</v>
+      </c>
+      <c r="L6" s="11">
+        <v>5</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="R6" s="11">
+        <v>40.476190476190382</v>
+      </c>
+      <c r="S6" s="11">
+        <v>21.428571428571399</v>
+      </c>
+      <c r="T6" s="11">
+        <v>0</v>
+      </c>
+      <c r="U6" s="11">
+        <v>0</v>
+      </c>
+      <c r="V6" s="11">
+        <v>78.571428571428498</v>
+      </c>
+      <c r="W6" s="11">
+        <v>2.38095238095238</v>
+      </c>
+      <c r="X6" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="11">
+        <v>19.047619047618959</v>
+      </c>
+      <c r="Z6" s="11">
+        <v>43.095238095238003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="11">
+        <v>40.476190476190382</v>
+      </c>
+      <c r="E7" s="6">
+        <v>21.428571428571399</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>78.571428571428498</v>
+      </c>
+      <c r="I7" s="6">
+        <v>2.38095238095238</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <v>19.047619047618959</v>
+      </c>
+      <c r="L7" s="11">
+        <v>43.095238095238003</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="R7" s="11">
+        <v>41.176470588235205</v>
+      </c>
+      <c r="S7" s="11">
+        <v>5.8823529411764701</v>
+      </c>
+      <c r="T7" s="11">
+        <v>61.7647058823528</v>
+      </c>
+      <c r="U7" s="11">
+        <v>0</v>
+      </c>
+      <c r="V7" s="11">
+        <v>70.588235294117567</v>
+      </c>
+      <c r="W7" s="11">
+        <v>8.8235294117646994</v>
+      </c>
+      <c r="X7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>8.8235294117646994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="11">
+        <v>29.411764705882302</v>
+      </c>
+      <c r="E8" s="11">
+        <v>5.8823529411764701</v>
+      </c>
+      <c r="F8" s="11">
+        <v>29.411764705882302</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="11">
+        <v>64.705882352941103</v>
+      </c>
+      <c r="I8" s="11">
+        <v>8.8235294117646994</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="11">
+        <v>8.8235294117646994</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="R8" s="11">
+        <v>51.724137931034399</v>
+      </c>
+      <c r="S8" s="11">
+        <v>6.8965517241379297</v>
+      </c>
+      <c r="T8" s="11">
+        <v>31.034482758620602</v>
+      </c>
+      <c r="U8" s="11">
+        <v>0</v>
+      </c>
+      <c r="V8" s="11">
+        <v>48.275862068965502</v>
+      </c>
+      <c r="W8" s="11">
+        <v>20.689655172413701</v>
+      </c>
+      <c r="X8" s="11">
+        <v>13.793103448275801</v>
+      </c>
+      <c r="Y8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="11">
+        <v>41.379310344827502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="11">
+        <v>11.764705882352899</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="11">
+        <v>32.352941176470502</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="11">
+        <v>5.8823529411764701</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="O9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q9" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="R9" s="11">
+        <v>6.6666666666666599</v>
+      </c>
+      <c r="S9" s="11">
+        <v>0</v>
+      </c>
+      <c r="T9" s="11">
+        <v>93.333333333333201</v>
+      </c>
+      <c r="U9" s="11">
+        <v>0</v>
+      </c>
+      <c r="V9" s="11">
+        <v>60</v>
+      </c>
+      <c r="W9" s="11">
+        <v>26.6666666666666</v>
+      </c>
+      <c r="X9" s="11">
+        <v>13.3333333333333</v>
+      </c>
+      <c r="Y9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="11">
+        <v>66.6666666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="11">
+        <v>41.176470588235205</v>
+      </c>
+      <c r="E10" s="6">
+        <v>5.8823529411764701</v>
+      </c>
+      <c r="F10" s="11">
+        <v>61.7647058823528</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>70.588235294117567</v>
+      </c>
+      <c r="I10" s="6">
+        <v>8.8235294117646994</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>8.8235294117646994</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="R10" s="11">
+        <v>30.769230769230699</v>
+      </c>
+      <c r="S10" s="11">
+        <v>0</v>
+      </c>
+      <c r="T10" s="11">
+        <v>69.230769230769098</v>
+      </c>
+      <c r="U10" s="11">
+        <v>0</v>
+      </c>
+      <c r="V10" s="11">
+        <v>76.923076923076891</v>
+      </c>
+      <c r="W10" s="11">
+        <v>38.461538461538296</v>
+      </c>
+      <c r="X10" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="11">
+        <v>23.076923076922998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="11">
+        <v>51.724137931034399</v>
+      </c>
+      <c r="E11" s="11">
+        <v>6.8965517241379297</v>
+      </c>
+      <c r="F11" s="11">
+        <v>31.034482758620602</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="11">
+        <v>48.275862068965502</v>
+      </c>
+      <c r="I11" s="11">
+        <v>20.689655172413701</v>
+      </c>
+      <c r="J11" s="11">
+        <v>13.793103448275801</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="11">
+        <v>41.379310344827502</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="R11" s="11">
+        <v>11.764705882352899</v>
+      </c>
+      <c r="S11" s="11">
+        <v>23.529411764705827</v>
+      </c>
+      <c r="T11" s="11">
+        <v>49.999999999999901</v>
+      </c>
+      <c r="U11" s="11">
+        <v>0</v>
+      </c>
+      <c r="V11" s="11">
+        <v>82.352941176470509</v>
+      </c>
+      <c r="W11" s="11">
+        <v>8.8235294117646994</v>
+      </c>
+      <c r="X11" s="11">
+        <v>47.058823529411697</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>47.058823529411697</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="O12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q12" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="R12" s="11">
+        <v>14.285714285714199</v>
+      </c>
+      <c r="S12" s="11">
+        <v>19.99999999999995</v>
+      </c>
+      <c r="T12" s="11">
+        <v>19.999999999999908</v>
+      </c>
+      <c r="U12" s="11">
+        <v>0</v>
+      </c>
+      <c r="V12" s="11">
+        <v>94.285714285714207</v>
+      </c>
+      <c r="W12" s="11">
+        <v>45.714285714285595</v>
+      </c>
+      <c r="X12" s="11">
+        <v>45.714285714285602</v>
+      </c>
+      <c r="Y12" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="11">
+        <v>65.714285714285595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="6">
+        <v>51.724137931034399</v>
+      </c>
+      <c r="E13" s="6">
+        <v>6.8965517241379297</v>
+      </c>
+      <c r="F13" s="6">
+        <v>31.034482758620602</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>48.275862068965502</v>
+      </c>
+      <c r="I13" s="6">
+        <v>20.689655172413701</v>
+      </c>
+      <c r="J13" s="6">
+        <v>13.793103448275801</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6">
+        <v>41.379310344827502</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="R13" s="11">
+        <v>23.076923076922998</v>
+      </c>
+      <c r="S13" s="11">
+        <v>7.6923076923076898</v>
+      </c>
+      <c r="T13" s="11">
+        <v>53.846153846153705</v>
+      </c>
+      <c r="U13" s="11">
+        <v>0</v>
+      </c>
+      <c r="V13" s="11">
+        <v>92.307692307692207</v>
+      </c>
+      <c r="W13" s="11">
+        <v>46.153846153846089</v>
+      </c>
+      <c r="X13" s="11">
+        <v>34.615384615384599</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>23.076923076922998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="11">
+        <v>6.6666666666666599</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="11">
+        <v>46.6666666666666</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="11">
+        <v>60</v>
+      </c>
+      <c r="I14" s="11">
+        <v>13.3333333333333</v>
+      </c>
+      <c r="J14" s="11">
+        <v>13.3333333333333</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="11">
+        <v>46.6666666666666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="11">
+        <v>46.6666666666666</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="11">
+        <v>13.3333333333333</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="6">
+        <v>6.6666666666666599</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="11">
+        <v>93.333333333333201</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>60</v>
+      </c>
+      <c r="I16" s="11">
+        <v>26.6666666666666</v>
+      </c>
+      <c r="J16" s="6">
+        <v>13.3333333333333</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="11">
+        <v>66.6666666666666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="11">
+        <v>30.769230769230699</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="11">
+        <v>30.769230769230699</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="11">
+        <v>69.230769230769198</v>
+      </c>
+      <c r="I17" s="11">
+        <v>23.076923076922998</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="11">
+        <v>23.076923076922998</v>
+      </c>
+      <c r="O17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="11">
+        <v>38.461538461538403</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="11">
+        <v>7.6923076923076898</v>
+      </c>
+      <c r="I18" s="11">
+        <v>15.3846153846153</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="6">
+        <v>30.769230769230699</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <v>69.230769230769098</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>76.923076923076891</v>
+      </c>
+      <c r="I19" s="11">
+        <v>38.461538461538296</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0</v>
+      </c>
+      <c r="L19" s="6">
+        <v>23.076923076922998</v>
+      </c>
+      <c r="O19" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>62</v>
+      </c>
+      <c r="R19" t="s">
+        <v>63</v>
+      </c>
+      <c r="S19" t="s">
+        <v>64</v>
+      </c>
+      <c r="T19"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="11">
+        <v>11.764705882352899</v>
+      </c>
+      <c r="E20" s="11">
+        <v>20.588235294117599</v>
+      </c>
+      <c r="F20" s="11">
+        <v>38.235294117647001</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="11">
+        <v>29.411764705882302</v>
+      </c>
+      <c r="I20" s="11">
+        <v>8.8235294117646994</v>
+      </c>
+      <c r="J20" s="11">
+        <v>29.411764705882302</v>
+      </c>
+      <c r="K20" s="6"/>
+      <c r="L20" s="11">
+        <v>38.235294117647001</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q20" s="31">
+        <f>V5</f>
+        <v>5.8823529411764701</v>
+      </c>
+      <c r="R20" s="31">
+        <f>V6</f>
+        <v>78.571428571428498</v>
+      </c>
+      <c r="S20" s="31">
+        <f>V7</f>
+        <v>70.588235294117567</v>
+      </c>
+      <c r="T20"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="11">
+        <v>2.9411764705882302</v>
+      </c>
+      <c r="F21" s="11">
+        <v>11.764705882352899</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="11">
+        <v>52.941176470588204</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="11">
+        <v>17.647058823529399</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="11">
+        <v>8.8235294117646994</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q21" s="31">
+        <f>V8</f>
+        <v>48.275862068965502</v>
+      </c>
+      <c r="R21" s="31">
+        <f>V9</f>
+        <v>60</v>
+      </c>
+      <c r="S21" s="31">
+        <f>V10</f>
+        <v>76.923076923076891</v>
+      </c>
+      <c r="T21"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="6">
+        <v>11.764705882352899</v>
+      </c>
+      <c r="E22" s="11">
+        <v>23.529411764705827</v>
+      </c>
+      <c r="F22" s="11">
+        <v>49.999999999999901</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="11">
+        <v>82.352941176470509</v>
+      </c>
+      <c r="I22" s="6">
+        <v>8.8235294117646994</v>
+      </c>
+      <c r="J22" s="11">
+        <v>47.058823529411697</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0</v>
+      </c>
+      <c r="L22" s="11">
+        <v>47.058823529411697</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q22" s="31">
+        <f>V11</f>
+        <v>82.352941176470509</v>
+      </c>
+      <c r="R22" s="31">
+        <f>V12</f>
+        <v>94.285714285714207</v>
+      </c>
+      <c r="S22" s="31">
+        <f>V13</f>
+        <v>92.307692307692207</v>
+      </c>
+      <c r="T22"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="11">
+        <v>14.285714285714199</v>
+      </c>
+      <c r="E23" s="11">
+        <v>17.1428571428571</v>
+      </c>
+      <c r="F23" s="11">
+        <v>14.285714285714199</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="11">
+        <v>37.142857142857103</v>
+      </c>
+      <c r="I23" s="11">
+        <v>31.428571428571399</v>
+      </c>
+      <c r="J23" s="11">
+        <v>34.285714285714199</v>
+      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="11">
+        <v>54.285714285714199</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="11">
+        <v>2.8571428571428501</v>
+      </c>
+      <c r="F24" s="11">
+        <v>5.71428571428571</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="11">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="I24" s="11">
+        <v>14.285714285714199</v>
+      </c>
+      <c r="J24" s="11">
+        <v>11.4285714285714</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="11">
+        <v>11.4285714285714</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P24" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q24" s="31">
+        <f>W5</f>
+        <v>11.764705882352899</v>
+      </c>
+      <c r="R24" s="31">
+        <f>W6</f>
+        <v>2.38095238095238</v>
+      </c>
+      <c r="S24" s="31">
+        <f>W7</f>
+        <v>8.8235294117646994</v>
+      </c>
+      <c r="T24"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="6">
+        <v>14.285714285714199</v>
+      </c>
+      <c r="E25" s="11">
+        <v>19.99999999999995</v>
+      </c>
+      <c r="F25" s="11">
+        <v>19.999999999999908</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>94.285714285714207</v>
+      </c>
+      <c r="I25" s="11">
+        <v>45.714285714285595</v>
+      </c>
+      <c r="J25" s="11">
+        <v>45.714285714285602</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <v>65.714285714285595</v>
+      </c>
+      <c r="P25" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q25" s="31">
+        <f>W8</f>
+        <v>20.689655172413701</v>
+      </c>
+      <c r="R25" s="31">
+        <f>W9</f>
+        <v>26.6666666666666</v>
+      </c>
+      <c r="S25" s="31">
+        <f>W10</f>
+        <v>38.461538461538296</v>
+      </c>
+      <c r="T25"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="11">
+        <v>23.076923076922998</v>
+      </c>
+      <c r="E26" s="11">
+        <v>7.6923076923076898</v>
+      </c>
+      <c r="F26" s="11">
+        <v>38.461538461538403</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="11">
+        <v>26.923076923076898</v>
+      </c>
+      <c r="I26" s="11">
+        <v>38.461538461538403</v>
+      </c>
+      <c r="J26" s="11">
+        <v>34.615384615384599</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="L26" s="11">
+        <v>23.076923076922998</v>
+      </c>
+      <c r="P26" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q26" s="31">
+        <f>W11</f>
+        <v>8.8235294117646994</v>
+      </c>
+      <c r="R26" s="31">
+        <f>W12</f>
+        <v>45.714285714285595</v>
+      </c>
+      <c r="S26" s="31">
+        <f>W13</f>
+        <v>46.153846153846089</v>
+      </c>
+      <c r="T26"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="11">
+        <v>15.3846153846153</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="11">
+        <v>65.384615384615302</v>
+      </c>
+      <c r="I27" s="11">
+        <v>7.6923076923076898</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="6">
+        <v>23.076923076922998</v>
+      </c>
+      <c r="E28" s="6">
+        <v>7.6923076923076898</v>
+      </c>
+      <c r="F28" s="6">
+        <v>53.846153846153705</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="11">
+        <v>92.307692307692207</v>
+      </c>
+      <c r="I28" s="6">
+        <v>46.153846153846089</v>
+      </c>
+      <c r="J28" s="6">
+        <v>34.615384615384599</v>
+      </c>
+      <c r="K28" s="6">
+        <v>0</v>
+      </c>
+      <c r="L28" s="6">
+        <v>23.076923076922998</v>
+      </c>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+    </row>
+    <row r="33" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+    </row>
+    <row r="34" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+    </row>
+  </sheetData>
+  <sortState ref="O2:Z28">
+    <sortCondition ref="Q2:Q28"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
